--- a/my1stProject/apbbus/apbbus.xlsx
+++ b/my1stProject/apbbus/apbbus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1546,9 +1546,6 @@
     <t>ams_discipline</t>
   </si>
   <si>
-    <t>apbbus8</t>
-  </si>
-  <si>
     <t>spiritconsortium.org</t>
   </si>
   <si>
@@ -1958,6 +1955,9 @@
   </si>
   <si>
     <t>remapAddressSlv7</t>
+  </si>
+  <si>
+    <t>apbbus</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3171,35 +3171,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="155">
     <dxf>
       <font>
         <b val="0"/>
@@ -7043,9 +7021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7086,7 +7064,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -7097,7 +7075,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -7108,7 +7086,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -9581,7 +9559,7 @@
         <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -9594,7 +9572,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D4" s="7">
         <v>4096</v>
@@ -9606,7 +9584,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="7">
         <v>8192</v>
@@ -9618,7 +9596,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D6" s="7">
         <v>4096</v>
@@ -9630,7 +9608,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D7" s="7">
         <v>12288</v>
@@ -9642,7 +9620,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D8" s="7">
         <v>4096</v>
@@ -9654,7 +9632,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D9" s="7">
         <v>16384</v>
@@ -9666,7 +9644,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" s="7">
         <v>4096</v>
@@ -9678,7 +9656,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D11" s="7">
         <v>20480</v>
@@ -9690,7 +9668,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" s="7">
         <v>4096</v>
@@ -9702,7 +9680,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13" s="7">
         <v>24576</v>
@@ -9714,7 +9692,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14" s="7">
         <v>4096</v>
@@ -9726,7 +9704,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D15" s="7">
         <v>28672</v>
@@ -9738,7 +9716,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="7">
         <v>4096</v>
@@ -9750,7 +9728,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D17" s="7">
         <v>32768</v>
@@ -9762,7 +9740,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D18" s="7">
         <v>4096</v>
@@ -9774,7 +9752,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="7">
         <v>8</v>
@@ -9793,12 +9771,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:B20 F4:F20 C3:E19">
-    <cfRule type="notContainsBlanks" dxfId="155" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="154" priority="2">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsBlanks" dxfId="154" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="153" priority="1">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9865,10 +9843,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -9881,10 +9859,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -9897,10 +9875,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -9913,10 +9891,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -9929,10 +9907,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -9945,10 +9923,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -9961,10 +9939,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -9977,10 +9955,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -9993,10 +9971,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -10009,10 +9987,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -10025,10 +10003,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -10041,10 +10019,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -10057,10 +10035,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -10073,10 +10051,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -10089,10 +10067,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -10105,10 +10083,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -10121,10 +10099,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -10137,10 +10115,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -10153,10 +10131,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -10169,10 +10147,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -10185,10 +10163,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -10201,10 +10179,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -10217,10 +10195,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -10233,10 +10211,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -10249,10 +10227,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -10265,10 +10243,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -10281,10 +10259,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -10297,10 +10275,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -10313,10 +10291,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -10329,10 +10307,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -10345,10 +10323,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -10361,10 +10339,10 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -10377,10 +10355,10 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -10393,10 +10371,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -10409,10 +10387,10 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -10424,170 +10402,170 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -10596,32 +10574,32 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B3 A32:J37 A31:E31 G31:J31 A11:J30 A10:D10 F10:J10 A6:J9 A5:C5 E5:J5 A4 D3:J4">
-    <cfRule type="notContainsBlanks" dxfId="153" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="152" priority="8">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsBlanks" dxfId="152" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="151" priority="7">
       <formula>LEN(TRIM(F31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="notContainsBlanks" dxfId="151" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="150" priority="6">
       <formula>LEN(TRIM(E10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsBlanks" dxfId="150" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="149" priority="5">
       <formula>LEN(TRIM(D5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsBlanks" dxfId="149" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="148" priority="4">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="notContainsBlanks" dxfId="148" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="147" priority="1">
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10641,9 +10619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10709,16 +10687,16 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -10730,10 +10708,10 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -10747,10 +10725,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -10764,10 +10742,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -10781,10 +10759,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -10798,10 +10776,10 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -10815,10 +10793,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -10832,7 +10810,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -10856,16 +10834,16 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B12" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -10877,10 +10855,10 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -10894,10 +10872,10 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -10911,10 +10889,10 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -10928,10 +10906,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -10945,10 +10923,10 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -10962,10 +10940,10 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -11003,28 +10981,28 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B21" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G21" s="7">
         <v>4096</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I21" s="7">
         <v>4096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K21" s="7"/>
     </row>
@@ -11032,10 +11010,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -11049,10 +11027,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -11066,10 +11044,10 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -11083,10 +11061,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -11100,10 +11078,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -11117,10 +11095,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -11158,28 +11136,28 @@
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B30" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G30" s="7">
         <v>4096</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I30" s="7">
         <v>8192</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K30" s="7"/>
     </row>
@@ -11187,10 +11165,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -11204,10 +11182,10 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -11221,10 +11199,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -11238,10 +11216,10 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -11255,10 +11233,10 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -11272,10 +11250,10 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -11313,29 +11291,29 @@
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B39" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G39" s="7">
         <v>4096</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I39" s="7">
         <f>I30+4096</f>
         <v>12288</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K39" s="7"/>
     </row>
@@ -11343,10 +11321,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -11360,10 +11338,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -11377,10 +11355,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -11394,10 +11372,10 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -11411,10 +11389,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -11428,10 +11406,10 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -11469,10 +11447,10 @@
     </row>
     <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B48" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11488,27 +11466,27 @@
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G49" s="7">
         <v>4096</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I49" s="7">
         <f>I39+4096</f>
         <v>16384</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K49" s="7"/>
     </row>
@@ -11516,10 +11494,10 @@
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -11533,10 +11511,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -11550,10 +11528,10 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -11567,10 +11545,10 @@
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -11584,10 +11562,10 @@
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -11625,10 +11603,10 @@
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B57" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -11644,37 +11622,37 @@
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G58" s="7">
         <v>4096</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I58" s="7">
         <f>I49+4096</f>
         <v>20480</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -11687,10 +11665,10 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -11703,10 +11681,10 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -11719,10 +11697,10 @@
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -11735,10 +11713,10 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -11773,10 +11751,10 @@
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B66" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -11791,37 +11769,37 @@
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G67" s="7">
         <v>4096</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I67" s="7">
         <f>I58+4096</f>
         <v>24576</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -11834,10 +11812,10 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -11850,10 +11828,10 @@
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -11866,10 +11844,10 @@
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -11882,10 +11860,10 @@
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -11920,10 +11898,10 @@
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B75" s="140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -11938,37 +11916,37 @@
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G76" s="7">
         <v>4096</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I76" s="7">
         <f>I67+4096</f>
         <v>28672</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -11981,10 +11959,10 @@
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -11997,10 +11975,10 @@
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -12013,10 +11991,10 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -12029,10 +12007,10 @@
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -12862,741 +12840,741 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:J149 B147:H147 J147 B3:J146">
-    <cfRule type="notContainsBlanks" dxfId="147" priority="170">
+    <cfRule type="notContainsBlanks" dxfId="146" priority="170">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147">
-    <cfRule type="notContainsBlanks" dxfId="146" priority="169">
+    <cfRule type="notContainsBlanks" dxfId="145" priority="169">
       <formula>LEN(TRIM(I147))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="notContainsBlanks" dxfId="145" priority="161">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="161">
       <formula>LEN(TRIM(A147))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="notContainsBlanks" dxfId="144" priority="160">
+    <cfRule type="notContainsBlanks" dxfId="143" priority="160">
       <formula>LEN(TRIM(A146))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="notContainsBlanks" dxfId="143" priority="159">
+    <cfRule type="notContainsBlanks" dxfId="142" priority="159">
       <formula>LEN(TRIM(A145))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="notContainsBlanks" dxfId="142" priority="158">
+    <cfRule type="notContainsBlanks" dxfId="141" priority="158">
       <formula>LEN(TRIM(A144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="notContainsBlanks" dxfId="141" priority="157">
+    <cfRule type="notContainsBlanks" dxfId="140" priority="157">
       <formula>LEN(TRIM(A143))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="notContainsBlanks" dxfId="140" priority="156">
+    <cfRule type="notContainsBlanks" dxfId="139" priority="156">
       <formula>LEN(TRIM(A142))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="notContainsBlanks" dxfId="139" priority="155">
+    <cfRule type="notContainsBlanks" dxfId="138" priority="155">
       <formula>LEN(TRIM(A141))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="notContainsBlanks" dxfId="138" priority="154">
+    <cfRule type="notContainsBlanks" dxfId="137" priority="154">
       <formula>LEN(TRIM(A140))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="notContainsBlanks" dxfId="137" priority="153">
+    <cfRule type="notContainsBlanks" dxfId="136" priority="153">
       <formula>LEN(TRIM(A139))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="notContainsBlanks" dxfId="136" priority="152">
+    <cfRule type="notContainsBlanks" dxfId="135" priority="152">
       <formula>LEN(TRIM(A138))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="notContainsBlanks" dxfId="135" priority="151">
+    <cfRule type="notContainsBlanks" dxfId="134" priority="151">
       <formula>LEN(TRIM(A137))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="notContainsBlanks" dxfId="134" priority="150">
+    <cfRule type="notContainsBlanks" dxfId="133" priority="150">
       <formula>LEN(TRIM(A136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="149">
+    <cfRule type="notContainsBlanks" dxfId="132" priority="149">
       <formula>LEN(TRIM(A135))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="notContainsBlanks" dxfId="132" priority="148">
+    <cfRule type="notContainsBlanks" dxfId="131" priority="148">
       <formula>LEN(TRIM(A134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="notContainsBlanks" dxfId="131" priority="147">
+    <cfRule type="notContainsBlanks" dxfId="130" priority="147">
       <formula>LEN(TRIM(A133))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="notContainsBlanks" dxfId="130" priority="146">
+    <cfRule type="notContainsBlanks" dxfId="129" priority="146">
       <formula>LEN(TRIM(A132))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="notContainsBlanks" dxfId="129" priority="145">
+    <cfRule type="notContainsBlanks" dxfId="128" priority="145">
       <formula>LEN(TRIM(A131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="notContainsBlanks" dxfId="128" priority="144">
+    <cfRule type="notContainsBlanks" dxfId="127" priority="144">
       <formula>LEN(TRIM(A130))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="notContainsBlanks" dxfId="127" priority="143">
+    <cfRule type="notContainsBlanks" dxfId="126" priority="143">
       <formula>LEN(TRIM(A129))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="notContainsBlanks" dxfId="126" priority="142">
+    <cfRule type="notContainsBlanks" dxfId="125" priority="142">
       <formula>LEN(TRIM(A128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="notContainsBlanks" dxfId="125" priority="141">
+    <cfRule type="notContainsBlanks" dxfId="124" priority="141">
       <formula>LEN(TRIM(A127))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="notContainsBlanks" dxfId="124" priority="140">
+    <cfRule type="notContainsBlanks" dxfId="123" priority="140">
       <formula>LEN(TRIM(A126))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="notContainsBlanks" dxfId="123" priority="139">
+    <cfRule type="notContainsBlanks" dxfId="122" priority="139">
       <formula>LEN(TRIM(A125))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="notContainsBlanks" dxfId="122" priority="138">
+    <cfRule type="notContainsBlanks" dxfId="121" priority="138">
       <formula>LEN(TRIM(A124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="notContainsBlanks" dxfId="121" priority="137">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="137">
       <formula>LEN(TRIM(A123))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="136">
+    <cfRule type="notContainsBlanks" dxfId="119" priority="136">
       <formula>LEN(TRIM(A122))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="notContainsBlanks" dxfId="119" priority="135">
+    <cfRule type="notContainsBlanks" dxfId="118" priority="135">
       <formula>LEN(TRIM(A121))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="notContainsBlanks" dxfId="118" priority="134">
+    <cfRule type="notContainsBlanks" dxfId="117" priority="134">
       <formula>LEN(TRIM(A120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="notContainsBlanks" dxfId="117" priority="133">
+    <cfRule type="notContainsBlanks" dxfId="116" priority="133">
       <formula>LEN(TRIM(A119))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="notContainsBlanks" dxfId="116" priority="132">
+    <cfRule type="notContainsBlanks" dxfId="115" priority="132">
       <formula>LEN(TRIM(A118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="notContainsBlanks" dxfId="115" priority="131">
+    <cfRule type="notContainsBlanks" dxfId="114" priority="131">
       <formula>LEN(TRIM(A117))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="notContainsBlanks" dxfId="114" priority="130">
+    <cfRule type="notContainsBlanks" dxfId="113" priority="130">
       <formula>LEN(TRIM(A116))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="notContainsBlanks" dxfId="113" priority="129">
+    <cfRule type="notContainsBlanks" dxfId="112" priority="129">
       <formula>LEN(TRIM(A115))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="notContainsBlanks" dxfId="112" priority="128">
+    <cfRule type="notContainsBlanks" dxfId="111" priority="128">
       <formula>LEN(TRIM(A114))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="notContainsBlanks" dxfId="111" priority="127">
+    <cfRule type="notContainsBlanks" dxfId="110" priority="127">
       <formula>LEN(TRIM(A113))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="notContainsBlanks" dxfId="110" priority="126">
+    <cfRule type="notContainsBlanks" dxfId="109" priority="126">
       <formula>LEN(TRIM(A112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="notContainsBlanks" dxfId="109" priority="125">
+    <cfRule type="notContainsBlanks" dxfId="108" priority="125">
       <formula>LEN(TRIM(A111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="notContainsBlanks" dxfId="108" priority="124">
+    <cfRule type="notContainsBlanks" dxfId="107" priority="124">
       <formula>LEN(TRIM(A110))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="notContainsBlanks" dxfId="107" priority="123">
+    <cfRule type="notContainsBlanks" dxfId="106" priority="123">
       <formula>LEN(TRIM(A109))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="notContainsBlanks" dxfId="106" priority="122">
+    <cfRule type="notContainsBlanks" dxfId="105" priority="122">
       <formula>LEN(TRIM(A108))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="notContainsBlanks" dxfId="105" priority="121">
+    <cfRule type="notContainsBlanks" dxfId="104" priority="121">
       <formula>LEN(TRIM(A107))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="notContainsBlanks" dxfId="104" priority="120">
+    <cfRule type="notContainsBlanks" dxfId="103" priority="120">
       <formula>LEN(TRIM(A106))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="notContainsBlanks" dxfId="103" priority="119">
+    <cfRule type="notContainsBlanks" dxfId="102" priority="119">
       <formula>LEN(TRIM(A105))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="notContainsBlanks" dxfId="102" priority="118">
+    <cfRule type="notContainsBlanks" dxfId="101" priority="118">
       <formula>LEN(TRIM(A104))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="notContainsBlanks" dxfId="101" priority="117">
+    <cfRule type="notContainsBlanks" dxfId="100" priority="117">
       <formula>LEN(TRIM(A103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="notContainsBlanks" dxfId="100" priority="116">
+    <cfRule type="notContainsBlanks" dxfId="99" priority="116">
       <formula>LEN(TRIM(A102))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="notContainsBlanks" dxfId="99" priority="115">
+    <cfRule type="notContainsBlanks" dxfId="98" priority="115">
       <formula>LEN(TRIM(A101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="notContainsBlanks" dxfId="98" priority="114">
+    <cfRule type="notContainsBlanks" dxfId="97" priority="114">
       <formula>LEN(TRIM(A100))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="notContainsBlanks" dxfId="97" priority="113">
+    <cfRule type="notContainsBlanks" dxfId="96" priority="113">
       <formula>LEN(TRIM(A99))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="notContainsBlanks" dxfId="96" priority="112">
+    <cfRule type="notContainsBlanks" dxfId="95" priority="112">
       <formula>LEN(TRIM(A98))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="notContainsBlanks" dxfId="95" priority="111">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="111">
       <formula>LEN(TRIM(A97))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="notContainsBlanks" dxfId="94" priority="110">
+    <cfRule type="notContainsBlanks" dxfId="93" priority="110">
       <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="notContainsBlanks" dxfId="93" priority="109">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="109">
       <formula>LEN(TRIM(A95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="notContainsBlanks" dxfId="92" priority="108">
+    <cfRule type="notContainsBlanks" dxfId="91" priority="108">
       <formula>LEN(TRIM(A94))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="notContainsBlanks" dxfId="91" priority="107">
+    <cfRule type="notContainsBlanks" dxfId="90" priority="107">
       <formula>LEN(TRIM(A93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="notContainsBlanks" dxfId="90" priority="106">
+    <cfRule type="notContainsBlanks" dxfId="89" priority="106">
       <formula>LEN(TRIM(A92))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="notContainsBlanks" dxfId="89" priority="105">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="105">
       <formula>LEN(TRIM(A91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="notContainsBlanks" dxfId="88" priority="104">
+    <cfRule type="notContainsBlanks" dxfId="87" priority="104">
       <formula>LEN(TRIM(A90))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="103">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="103">
       <formula>LEN(TRIM(A89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="102">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="102">
       <formula>LEN(TRIM(A88))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="101">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="101">
       <formula>LEN(TRIM(A87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="100">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="100">
       <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="99">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="99">
       <formula>LEN(TRIM(A85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="98">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="98">
       <formula>LEN(TRIM(A84))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="97">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="97">
       <formula>LEN(TRIM(A83))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="96">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="96">
       <formula>LEN(TRIM(A82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="95">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="95">
       <formula>LEN(TRIM(A81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="94">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="94">
       <formula>LEN(TRIM(A80))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="93">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="93">
       <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="92">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="92">
       <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="91">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="91">
       <formula>LEN(TRIM(A77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="90">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="90">
       <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="89">
       <formula>LEN(TRIM(A75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="88">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="88">
       <formula>LEN(TRIM(A74))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="87">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="87">
       <formula>LEN(TRIM(A73))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="86">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="86">
       <formula>LEN(TRIM(A72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="85">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="85">
       <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="84">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="84">
       <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="83">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="83">
       <formula>LEN(TRIM(A69))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="82">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="82">
       <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="81">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="81">
       <formula>LEN(TRIM(A67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="80">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="80">
       <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="79">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="79">
       <formula>LEN(TRIM(A65))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="78">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="78">
       <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="77">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="77">
       <formula>LEN(TRIM(A63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="76">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="76">
       <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="75">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="75">
       <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="74">
       <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="73">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="73">
       <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="72">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="72">
       <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="71">
       <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="70">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="70">
       <formula>LEN(TRIM(A56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="69">
       <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="68">
       <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="67">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="67">
       <formula>LEN(TRIM(A53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="66">
       <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="65">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="65">
       <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="64">
       <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="63">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="63">
       <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="62">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="62">
       <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="61">
       <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="60">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="60">
       <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="59">
       <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="58">
       <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="57">
       <formula>LEN(TRIM(A43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="56">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="56">
       <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="55">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="55">
       <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="54">
       <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="53">
       <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="43">
       <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="42">
       <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="41">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="40">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="39">
       <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="38">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="37">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="36">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="35">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="34">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="33">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="32">
       <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="31">
       <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="30">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="29">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="28">
       <formula>LEN(TRIM(A23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="27">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="26">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="25">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="24">
       <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="23">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="22">
       <formula>LEN(TRIM(A17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="21">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="20">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="19">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="18">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="17">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="16">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="15">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="14">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="13">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="11">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31:I32">
       <formula1>#REF!</formula1>
     </dataValidation>
